--- a/biology/Microbiologie/Fusulinata/Fusulinata.xlsx
+++ b/biology/Microbiologie/Fusulinata/Fusulinata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Fusulinata sont une classe fossile de Foraminifères.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon le World Register of Marine Species                               (11 octobre 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon le World Register of Marine Species                               (11 octobre 2023) :
 sous-classe des † Afusulinana Vachard, Pille &amp; Gaillot, 2010
 † Endothyrida Fursenko, 1958
 † Fusulinida Wedekind, 1937
@@ -548,9 +562,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Fusulinata Maslakova, 1990 nom. translat. Gaillot &amp; Vachard, 2007 emend. Vachard, Krainer &amp; Lucas, 2013[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Fusulinata Maslakova, 1990 nom. translat. Gaillot &amp; Vachard, 2007 emend. Vachard, Krainer &amp; Lucas, 2013.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(ru) N. I. Maslakova, « ритерии выделения высших таксонов фораминифер » [« Critères d'établissement des taxons supérieurs chez les Foraminifères »], Систематика и филогения беспозвоночных [Systématique et phylogénie des invertébrés], Moscou, Izdatelstvo Nauka,‎ 1990, p. 22–27</t>
         </is>
